--- a/ocms/src/test/resources/DownloadedFiles/User Role Mapping (2).xlsx
+++ b/ocms/src/test/resources/DownloadedFiles/User Role Mapping (2).xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="353">
   <si>
     <t xml:space="preserve">First Name</t>
   </si>
@@ -361,6 +361,18 @@
     <t xml:space="preserve">L</t>
   </si>
   <si>
+    <t xml:space="preserve">TestUser100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10212140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestUser101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10654562</t>
+  </si>
+  <si>
     <t xml:space="preserve">TestUser21</t>
   </si>
   <si>
@@ -373,18 +385,6 @@
     <t xml:space="preserve">654562</t>
   </si>
   <si>
-    <t xml:space="preserve">TestUser100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10212140</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TestUser101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10654562</t>
-  </si>
-  <si>
     <t xml:space="preserve">Uday</t>
   </si>
   <si>
@@ -583,6 +583,24 @@
     <t xml:space="preserve">21474712</t>
   </si>
   <si>
+    <t xml:space="preserve">TestUser11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">321474712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestUser12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">321474713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestUser2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">474713</t>
+  </si>
+  <si>
     <t xml:space="preserve">testL</t>
   </si>
   <si>
@@ -616,24 +634,6 @@
     <t xml:space="preserve">52041</t>
   </si>
   <si>
-    <t xml:space="preserve">TestUser11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">321474712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TestUser12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">321474713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TestUser2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">474713</t>
-  </si>
-  <si>
     <t xml:space="preserve">Supreeth</t>
   </si>
   <si>
@@ -673,6 +673,21 @@
     <t xml:space="preserve">234444444</t>
   </si>
   <si>
+    <t xml:space="preserve">sudarshan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QA</t>
+  </si>
+  <si>
     <t xml:space="preserve">Shivani</t>
   </si>
   <si>
@@ -932,6 +947,18 @@
   </si>
   <si>
     <t xml:space="preserve">55220033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AravindaTesting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9880232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Big Bang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRSTESTING</t>
   </si>
   <si>
     <t xml:space="preserve">Aravinda</t>
@@ -1113,7 +1140,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H115"/>
+  <dimension ref="A1:H117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane state="frozen" ySplit="1" topLeftCell="A2"/>
@@ -2774,25 +2801,25 @@
         <v>180</v>
       </c>
       <c r="B64" t="s">
-        <v>113</v>
+        <v>31</v>
       </c>
       <c r="C64" t="s">
         <v>188</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F64" t="s">
         <v>11</v>
       </c>
       <c r="G64" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H64" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" x14ac:dyDescent="0.25">
@@ -2803,10 +2830,10 @@
         <v>183</v>
       </c>
       <c r="C65" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D65" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E65" t="s">
         <v>15</v>
@@ -2818,33 +2845,33 @@
         <v>22</v>
       </c>
       <c r="H65" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="B66" t="s">
+        <v>31</v>
+      </c>
+      <c r="C66" t="s">
         <v>192</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>193</v>
       </c>
-      <c r="D66" t="s">
-        <v>194</v>
-      </c>
       <c r="E66" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="F66" t="s">
-        <v>195</v>
+        <v>11</v>
       </c>
       <c r="G66" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H66" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67" x14ac:dyDescent="0.25">
@@ -2852,22 +2879,22 @@
         <v>180</v>
       </c>
       <c r="B67" t="s">
-        <v>196</v>
+        <v>113</v>
       </c>
       <c r="C67" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D67" t="s">
-        <v>198</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>195</v>
+        <v>11</v>
       </c>
       <c r="G67" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="H67" t="s">
         <v>23</v>
@@ -2878,13 +2905,13 @@
         <v>180</v>
       </c>
       <c r="B68" t="s">
-        <v>31</v>
+        <v>183</v>
       </c>
       <c r="C68" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D68" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E68" t="s">
         <v>15</v>
@@ -2896,33 +2923,33 @@
         <v>22</v>
       </c>
       <c r="H68" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="B69" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="C69" t="s">
+        <v>199</v>
+      </c>
+      <c r="D69" t="s">
+        <v>200</v>
+      </c>
+      <c r="E69" t="s">
+        <v>59</v>
+      </c>
+      <c r="F69" t="s">
         <v>201</v>
       </c>
-      <c r="D69" t="s">
-        <v>202</v>
-      </c>
-      <c r="E69" t="s">
-        <v>15</v>
-      </c>
-      <c r="F69" t="s">
-        <v>11</v>
-      </c>
       <c r="G69" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H69" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" x14ac:dyDescent="0.25">
@@ -2930,7 +2957,7 @@
         <v>180</v>
       </c>
       <c r="B70" t="s">
-        <v>31</v>
+        <v>202</v>
       </c>
       <c r="C70" t="s">
         <v>203</v>
@@ -2939,16 +2966,16 @@
         <v>204</v>
       </c>
       <c r="E70" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="F70" t="s">
-        <v>11</v>
+        <v>201</v>
       </c>
       <c r="G70" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H70" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71" x14ac:dyDescent="0.25">
@@ -3037,10 +3064,10 @@
         <v>219</v>
       </c>
       <c r="C74" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D74" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E74" t="s">
         <v>15</v>
@@ -3049,24 +3076,24 @@
         <v>11</v>
       </c>
       <c r="G74" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="H74" t="s">
-        <v>23</v>
+        <v>222</v>
       </c>
     </row>
     <row r="75" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B75" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C75" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D75" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E75" t="s">
         <v>15</v>
@@ -3083,16 +3110,16 @@
     </row>
     <row r="76" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B76" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C76" t="s">
         <v>226</v>
       </c>
       <c r="D76" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E76" t="s">
         <v>15</v>
@@ -3101,21 +3128,21 @@
         <v>11</v>
       </c>
       <c r="G76" t="s">
-        <v>228</v>
+        <v>79</v>
       </c>
       <c r="H76" t="s">
-        <v>229</v>
+        <v>23</v>
       </c>
     </row>
     <row r="77" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>229</v>
+      </c>
+      <c r="B77" t="s">
         <v>230</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C77" t="s">
         <v>231</v>
-      </c>
-      <c r="C77" t="s">
-        <v>230</v>
       </c>
       <c r="D77" t="s">
         <v>232</v>
@@ -3124,62 +3151,62 @@
         <v>15</v>
       </c>
       <c r="F77" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="G77" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="H77" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="78" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B78" t="s">
-        <v>25</v>
+        <v>236</v>
       </c>
       <c r="C78" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>237</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F78" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="G78" t="s">
-        <v>10</v>
+        <v>214</v>
       </c>
       <c r="H78" t="s">
-        <v>23</v>
+        <v>238</v>
       </c>
     </row>
     <row r="79" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B79" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C79" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D79" t="s">
-        <v>236</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F79" t="s">
         <v>11</v>
       </c>
       <c r="G79" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="H79" t="s">
         <v>23</v>
@@ -3187,16 +3214,16 @@
     </row>
     <row r="80" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B80" t="s">
         <v>19</v>
       </c>
       <c r="C80" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D80" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="E80" t="s">
         <v>15</v>
@@ -3213,16 +3240,16 @@
     </row>
     <row r="81" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B81" t="s">
-        <v>240</v>
+        <v>19</v>
       </c>
       <c r="C81" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D81" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E81" t="s">
         <v>15</v>
@@ -3234,125 +3261,125 @@
         <v>22</v>
       </c>
       <c r="H81" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="82" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B82" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C82" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D82" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E82" t="s">
         <v>15</v>
       </c>
       <c r="F82" t="s">
-        <v>245</v>
+        <v>11</v>
       </c>
       <c r="G82" t="s">
-        <v>214</v>
+        <v>22</v>
       </c>
       <c r="H82" t="s">
-        <v>233</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B83" t="s">
+        <v>248</v>
+      </c>
+      <c r="C83" t="s">
         <v>247</v>
       </c>
-      <c r="C83" t="s">
-        <v>246</v>
-      </c>
       <c r="D83" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E83" t="s">
         <v>15</v>
       </c>
       <c r="F83" t="s">
-        <v>208</v>
+        <v>250</v>
       </c>
       <c r="G83" t="s">
-        <v>16</v>
+        <v>214</v>
       </c>
       <c r="H83" t="s">
-        <v>23</v>
+        <v>238</v>
       </c>
     </row>
     <row r="84" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B84" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C84" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>253</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F84" t="s">
-        <v>11</v>
+        <v>208</v>
       </c>
       <c r="G84" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H84" t="s">
-        <v>251</v>
+        <v>23</v>
       </c>
     </row>
     <row r="85" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B85" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C85" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D85" t="s">
-        <v>254</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="G85" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="H85" t="s">
-        <v>10</v>
+        <v>256</v>
       </c>
     </row>
     <row r="86" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B86" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C86" t="s">
-        <v>66</v>
+        <v>257</v>
       </c>
       <c r="D86" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E86" t="s">
         <v>15</v>
@@ -3364,70 +3391,70 @@
         <v>16</v>
       </c>
       <c r="H86" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B87" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C87" t="s">
-        <v>259</v>
+        <v>66</v>
       </c>
       <c r="D87" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E87" t="s">
         <v>15</v>
       </c>
       <c r="F87" t="s">
-        <v>261</v>
+        <v>41</v>
       </c>
       <c r="G87" t="s">
-        <v>262</v>
+        <v>16</v>
       </c>
       <c r="H87" t="s">
-        <v>263</v>
+        <v>17</v>
       </c>
     </row>
     <row r="88" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
+        <v>263</v>
+      </c>
+      <c r="B88" t="s">
         <v>264</v>
-      </c>
-      <c r="B88" t="s">
-        <v>206</v>
       </c>
       <c r="C88" t="s">
         <v>264</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>265</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F88" t="s">
-        <v>11</v>
+        <v>266</v>
       </c>
       <c r="G88" t="s">
-        <v>10</v>
+        <v>267</v>
       </c>
       <c r="H88" t="s">
-        <v>10</v>
+        <v>268</v>
       </c>
     </row>
     <row r="89" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B89" t="s">
-        <v>266</v>
+        <v>206</v>
       </c>
       <c r="C89" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="D89" t="s">
         <v>10</v>
@@ -3447,25 +3474,25 @@
     </row>
     <row r="90" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B90" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C90" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D90" t="s">
-        <v>269</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>270</v>
+        <v>11</v>
       </c>
       <c r="G90" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="H90" t="s">
         <v>10</v>
@@ -3473,51 +3500,51 @@
     </row>
     <row r="91" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B91" t="s">
+        <v>273</v>
+      </c>
+      <c r="C91" t="s">
         <v>272</v>
       </c>
-      <c r="C91" t="s">
-        <v>271</v>
-      </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>274</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="F91" t="s">
-        <v>11</v>
+        <v>275</v>
       </c>
       <c r="G91" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H91" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B92" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C92" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D92" t="s">
-        <v>275</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F92" t="s">
         <v>11</v>
       </c>
       <c r="G92" t="s">
-        <v>276</v>
+        <v>10</v>
       </c>
       <c r="H92" t="s">
         <v>23</v>
@@ -3525,16 +3552,16 @@
     </row>
     <row r="93" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B93" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="C93" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D93" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E93" t="s">
         <v>15</v>
@@ -3543,7 +3570,7 @@
         <v>11</v>
       </c>
       <c r="G93" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="H93" t="s">
         <v>23</v>
@@ -3551,16 +3578,16 @@
     </row>
     <row r="94" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B94" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="C94" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D94" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E94" t="s">
         <v>15</v>
@@ -3569,111 +3596,111 @@
         <v>11</v>
       </c>
       <c r="G94" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="H94" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="95" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B95" t="s">
-        <v>180</v>
+        <v>271</v>
       </c>
       <c r="C95" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D95" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E95" t="s">
         <v>15</v>
       </c>
       <c r="F95" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="G95" t="s">
-        <v>16</v>
+        <v>281</v>
       </c>
       <c r="H95" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B96" t="s">
-        <v>286</v>
+        <v>180</v>
       </c>
       <c r="C96" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D96" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E96" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="F96" t="s">
-        <v>195</v>
+        <v>41</v>
       </c>
       <c r="G96" t="s">
         <v>16</v>
       </c>
       <c r="H96" t="s">
-        <v>288</v>
+        <v>17</v>
       </c>
     </row>
     <row r="97" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>268</v>
+        <v>290</v>
       </c>
       <c r="B97" t="s">
-        <v>267</v>
+        <v>291</v>
       </c>
       <c r="C97" t="s">
-        <v>268</v>
+        <v>290</v>
       </c>
       <c r="D97" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="E97" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="F97" t="s">
-        <v>11</v>
+        <v>201</v>
       </c>
       <c r="G97" t="s">
-        <v>276</v>
+        <v>16</v>
       </c>
       <c r="H97" t="s">
-        <v>10</v>
+        <v>293</v>
       </c>
     </row>
     <row r="98" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="B98" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="C98" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="D98" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E98" t="s">
         <v>15</v>
       </c>
       <c r="F98" t="s">
-        <v>129</v>
+        <v>11</v>
       </c>
       <c r="G98" t="s">
-        <v>130</v>
+        <v>281</v>
       </c>
       <c r="H98" t="s">
         <v>10</v>
@@ -3681,25 +3708,25 @@
     </row>
     <row r="99" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B99" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C99" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D99" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E99" t="s">
         <v>15</v>
       </c>
       <c r="F99" t="s">
-        <v>296</v>
+        <v>129</v>
       </c>
       <c r="G99" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H99" t="s">
         <v>10</v>
@@ -3707,158 +3734,158 @@
     </row>
     <row r="100" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B100" t="s">
-        <v>180</v>
+        <v>299</v>
       </c>
       <c r="C100" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D100" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E100" t="s">
         <v>15</v>
       </c>
       <c r="F100" t="s">
-        <v>11</v>
+        <v>301</v>
       </c>
       <c r="G100" t="s">
-        <v>22</v>
+        <v>134</v>
       </c>
       <c r="H100" t="s">
-        <v>299</v>
+        <v>10</v>
       </c>
     </row>
     <row r="101" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B101" t="s">
-        <v>301</v>
+        <v>180</v>
       </c>
       <c r="C101" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>303</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F101" t="s">
         <v>11</v>
       </c>
       <c r="G101" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H101" t="s">
-        <v>23</v>
+        <v>304</v>
       </c>
     </row>
     <row r="102" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B102" t="s">
-        <v>247</v>
+        <v>306</v>
       </c>
       <c r="C102" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D102" t="s">
-        <v>304</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F102" t="s">
         <v>11</v>
       </c>
       <c r="G102" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="H102" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="103" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B103" t="s">
-        <v>306</v>
+        <v>252</v>
       </c>
       <c r="C103" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D103" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E103" t="s">
         <v>15</v>
       </c>
       <c r="F103" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="G103" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="H103" t="s">
-        <v>308</v>
+        <v>10</v>
       </c>
     </row>
     <row r="104" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="B104" t="s">
-        <v>309</v>
+        <v>170</v>
       </c>
       <c r="C104" t="s">
         <v>310</v>
       </c>
       <c r="D104" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E104" t="s">
         <v>59</v>
       </c>
       <c r="F104" t="s">
-        <v>195</v>
+        <v>312</v>
       </c>
       <c r="G104" t="s">
         <v>16</v>
       </c>
       <c r="H104" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="105" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B105" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C105" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>316</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F105" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="G105" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="H105" t="s">
-        <v>10</v>
+        <v>317</v>
       </c>
     </row>
     <row r="106" x14ac:dyDescent="0.25">
@@ -3866,48 +3893,48 @@
         <v>314</v>
       </c>
       <c r="B106" t="s">
-        <v>219</v>
+        <v>318</v>
       </c>
       <c r="C106" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="D106" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="E106" t="s">
         <v>59</v>
       </c>
       <c r="F106" t="s">
-        <v>11</v>
+        <v>201</v>
       </c>
       <c r="G106" t="s">
-        <v>134</v>
+        <v>16</v>
       </c>
       <c r="H106" t="s">
-        <v>23</v>
+        <v>320</v>
       </c>
     </row>
     <row r="107" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="B107" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="C107" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="D107" t="s">
-        <v>318</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F107" t="s">
         <v>11</v>
       </c>
       <c r="G107" t="s">
-        <v>276</v>
+        <v>10</v>
       </c>
       <c r="H107" t="s">
         <v>10</v>
@@ -3915,25 +3942,25 @@
     </row>
     <row r="108" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="B108" t="s">
-        <v>320</v>
+        <v>224</v>
       </c>
       <c r="C108" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D108" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="E108" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="F108" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="G108" t="s">
-        <v>323</v>
+        <v>134</v>
       </c>
       <c r="H108" t="s">
         <v>23</v>
@@ -3941,13 +3968,13 @@
     </row>
     <row r="109" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B109" t="s">
+        <v>326</v>
+      </c>
+      <c r="C109" t="s">
         <v>325</v>
-      </c>
-      <c r="C109" t="s">
-        <v>326</v>
       </c>
       <c r="D109" t="s">
         <v>327</v>
@@ -3959,33 +3986,33 @@
         <v>11</v>
       </c>
       <c r="G109" t="s">
-        <v>228</v>
+        <v>281</v>
       </c>
       <c r="H109" t="s">
-        <v>175</v>
+        <v>10</v>
       </c>
     </row>
     <row r="110" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>143</v>
+        <v>328</v>
       </c>
       <c r="B110" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C110" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D110" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E110" t="s">
         <v>15</v>
       </c>
       <c r="F110" t="s">
-        <v>331</v>
+        <v>78</v>
       </c>
       <c r="G110" t="s">
-        <v>134</v>
+        <v>332</v>
       </c>
       <c r="H110" t="s">
         <v>23</v>
@@ -3993,77 +4020,77 @@
     </row>
     <row r="111" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B111" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C111" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D111" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E111" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="F111" t="s">
-        <v>261</v>
+        <v>11</v>
       </c>
       <c r="G111" t="s">
-        <v>22</v>
+        <v>233</v>
       </c>
       <c r="H111" t="s">
-        <v>10</v>
+        <v>175</v>
       </c>
     </row>
     <row r="112" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>336</v>
+        <v>143</v>
       </c>
       <c r="B112" t="s">
         <v>337</v>
       </c>
       <c r="C112" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D112" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E112" t="s">
         <v>15</v>
       </c>
       <c r="F112" t="s">
-        <v>11</v>
+        <v>340</v>
       </c>
       <c r="G112" t="s">
-        <v>22</v>
+        <v>134</v>
       </c>
       <c r="H112" t="s">
-        <v>339</v>
+        <v>23</v>
       </c>
     </row>
     <row r="113" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B113" t="s">
+        <v>342</v>
+      </c>
+      <c r="C113" t="s">
+        <v>343</v>
+      </c>
+      <c r="D113" t="s">
+        <v>344</v>
+      </c>
+      <c r="E113" t="s">
+        <v>59</v>
+      </c>
+      <c r="F113" t="s">
         <v>266</v>
       </c>
-      <c r="C113" t="s">
-        <v>340</v>
-      </c>
-      <c r="D113" t="s">
-        <v>10</v>
-      </c>
-      <c r="E113" t="s">
-        <v>10</v>
-      </c>
-      <c r="F113" t="s">
-        <v>11</v>
-      </c>
       <c r="G113" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H113" t="s">
         <v>10</v>
@@ -4071,53 +4098,105 @@
     </row>
     <row r="114" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="B114" t="s">
-        <v>55</v>
+        <v>346</v>
       </c>
       <c r="C114" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>347</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F114" t="s">
         <v>11</v>
       </c>
       <c r="G114" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H114" t="s">
-        <v>10</v>
+        <v>348</v>
       </c>
     </row>
     <row r="115" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>10</v>
+        <v>349</v>
       </c>
       <c r="B115" t="s">
+        <v>271</v>
+      </c>
+      <c r="C115" t="s">
+        <v>349</v>
+      </c>
+      <c r="D115" t="s">
+        <v>10</v>
+      </c>
+      <c r="E115" t="s">
+        <v>10</v>
+      </c>
+      <c r="F115" t="s">
+        <v>11</v>
+      </c>
+      <c r="G115" t="s">
+        <v>10</v>
+      </c>
+      <c r="H115" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>350</v>
+      </c>
+      <c r="B116" t="s">
+        <v>55</v>
+      </c>
+      <c r="C116" t="s">
+        <v>350</v>
+      </c>
+      <c r="D116" t="s">
+        <v>10</v>
+      </c>
+      <c r="E116" t="s">
+        <v>10</v>
+      </c>
+      <c r="F116" t="s">
+        <v>11</v>
+      </c>
+      <c r="G116" t="s">
+        <v>10</v>
+      </c>
+      <c r="H116" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>10</v>
+      </c>
+      <c r="B117" t="s">
         <v>98</v>
       </c>
-      <c r="C115" t="s">
-        <v>342</v>
-      </c>
-      <c r="D115" t="s">
-        <v>343</v>
-      </c>
-      <c r="E115" t="s">
-        <v>15</v>
-      </c>
-      <c r="F115" t="s">
-        <v>11</v>
-      </c>
-      <c r="G115" t="s">
+      <c r="C117" t="s">
+        <v>351</v>
+      </c>
+      <c r="D117" t="s">
+        <v>352</v>
+      </c>
+      <c r="E117" t="s">
+        <v>15</v>
+      </c>
+      <c r="F117" t="s">
+        <v>11</v>
+      </c>
+      <c r="G117" t="s">
         <v>22</v>
       </c>
-      <c r="H115" t="s">
+      <c r="H117" t="s">
         <v>10</v>
       </c>
     </row>
